--- a/DRL_Automated_Trading/results14/DB1.DE.xlsx
+++ b/DRL_Automated_Trading/results14/DB1.DE.xlsx
@@ -1964,7 +1964,7 @@
         <v>44169</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>60.23746561794584</v>
